--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Tnf</t>
+  </si>
+  <si>
+    <t>Tnfrsf21</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tnf</t>
-  </si>
-  <si>
-    <t>Tnfrsf21</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H2">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I2">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J2">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.62326166666667</v>
+        <v>17.46627766666667</v>
       </c>
       <c r="N2">
-        <v>70.86978500000001</v>
+        <v>52.398833</v>
       </c>
       <c r="O2">
-        <v>0.5054607868187524</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="P2">
-        <v>0.5054607868187523</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="Q2">
-        <v>7688.500296995744</v>
+        <v>50.88933324102855</v>
       </c>
       <c r="R2">
-        <v>69196.50267296169</v>
+        <v>458.003999169257</v>
       </c>
       <c r="S2">
-        <v>0.5045754384645831</v>
+        <v>0.2257292777608355</v>
       </c>
       <c r="T2">
-        <v>0.504575438464583</v>
+        <v>0.2257292777608355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H3">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I3">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J3">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.465517</v>
       </c>
       <c r="O3">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="P3">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="Q3">
-        <v>809.9168026504775</v>
+        <v>7.250451215765889</v>
       </c>
       <c r="R3">
-        <v>7289.251223854298</v>
+        <v>65.254060941893</v>
       </c>
       <c r="S3">
-        <v>0.05315264486324882</v>
+        <v>0.03216074984954798</v>
       </c>
       <c r="T3">
-        <v>0.05315264486324883</v>
+        <v>0.03216074984954798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H4">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I4">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J4">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62432433333333</v>
+        <v>46.97117233333334</v>
       </c>
       <c r="N4">
-        <v>61.87297299999999</v>
+        <v>140.913517</v>
       </c>
       <c r="O4">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="P4">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="Q4">
-        <v>6712.456814797865</v>
+        <v>136.8540960593214</v>
       </c>
       <c r="R4">
-        <v>60412.11133318079</v>
+        <v>1231.686864533893</v>
       </c>
       <c r="S4">
-        <v>0.4405203498300764</v>
+        <v>0.6070422678907604</v>
       </c>
       <c r="T4">
-        <v>0.4405203498300764</v>
+        <v>0.6070422678907604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>1.364951</v>
       </c>
       <c r="I5">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J5">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.62326166666667</v>
+        <v>17.46627766666667</v>
       </c>
       <c r="N5">
-        <v>70.86978500000001</v>
+        <v>52.398833</v>
       </c>
       <c r="O5">
-        <v>0.5054607868187524</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="P5">
-        <v>0.5054607868187523</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="Q5">
-        <v>10.74819821172611</v>
+        <v>7.946871055798111</v>
       </c>
       <c r="R5">
-        <v>96.73378390553501</v>
+        <v>71.521839502183</v>
       </c>
       <c r="S5">
-        <v>0.0007053751207508021</v>
+        <v>0.03524985197561098</v>
       </c>
       <c r="T5">
-        <v>0.0007053751207508021</v>
+        <v>0.03524985197561099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>1.364951</v>
       </c>
       <c r="I6">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J6">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.465517</v>
       </c>
       <c r="O6">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="P6">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="Q6">
         <v>1.132229432740778</v>
@@ -818,10 +818,10 @@
         <v>10.190064894667</v>
       </c>
       <c r="S6">
-        <v>7.430514930082214E-05</v>
+        <v>0.00502221813167876</v>
       </c>
       <c r="T6">
-        <v>7.430514930082214E-05</v>
+        <v>0.005022218131678761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,10 +850,10 @@
         <v>1.364951</v>
       </c>
       <c r="I7">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J7">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.62432433333333</v>
+        <v>46.97117233333334</v>
       </c>
       <c r="N7">
-        <v>61.87297299999999</v>
+        <v>140.913517</v>
       </c>
       <c r="O7">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="P7">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="Q7">
-        <v>9.383730707702554</v>
+        <v>21.37111621585189</v>
       </c>
       <c r="R7">
-        <v>84.45357636932299</v>
+        <v>192.340045942667</v>
       </c>
       <c r="S7">
-        <v>0.0006158288162026469</v>
+        <v>0.09479563439156634</v>
       </c>
       <c r="T7">
-        <v>0.000615828816202647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.116087</v>
-      </c>
-      <c r="H8">
-        <v>0.348261</v>
-      </c>
-      <c r="I8">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J8">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>23.62326166666667</v>
-      </c>
-      <c r="N8">
-        <v>70.86978500000001</v>
-      </c>
-      <c r="O8">
-        <v>0.5054607868187524</v>
-      </c>
-      <c r="P8">
-        <v>0.5054607868187523</v>
-      </c>
-      <c r="Q8">
-        <v>2.742353577098333</v>
-      </c>
-      <c r="R8">
-        <v>24.681182193885</v>
-      </c>
-      <c r="S8">
-        <v>0.0001799732334184854</v>
-      </c>
-      <c r="T8">
-        <v>0.0001799732334184854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.116087</v>
-      </c>
-      <c r="H9">
-        <v>0.348261</v>
-      </c>
-      <c r="I9">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J9">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.488505666666667</v>
-      </c>
-      <c r="N9">
-        <v>7.465517</v>
-      </c>
-      <c r="O9">
-        <v>0.05324590863128442</v>
-      </c>
-      <c r="P9">
-        <v>0.05324590863128442</v>
-      </c>
-      <c r="Q9">
-        <v>0.2888831573263334</v>
-      </c>
-      <c r="R9">
-        <v>2.599948415937</v>
-      </c>
-      <c r="S9">
-        <v>1.895861873477774E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.895861873477775E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.116087</v>
-      </c>
-      <c r="H10">
-        <v>0.348261</v>
-      </c>
-      <c r="I10">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J10">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>20.62432433333333</v>
-      </c>
-      <c r="N10">
-        <v>61.87297299999999</v>
-      </c>
-      <c r="O10">
-        <v>0.4412933045499632</v>
-      </c>
-      <c r="P10">
-        <v>0.4412933045499632</v>
-      </c>
-      <c r="Q10">
-        <v>2.394215938883666</v>
-      </c>
-      <c r="R10">
-        <v>21.547943449953</v>
-      </c>
-      <c r="S10">
-        <v>0.0001571259036841249</v>
-      </c>
-      <c r="T10">
-        <v>0.000157125903684125</v>
+        <v>0.09479563439156637</v>
       </c>
     </row>
   </sheetData>
